--- a/init.xlsx
+++ b/init.xlsx
@@ -383,7 +383,7 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>43611</v>
+        <v>43599</v>
       </c>
     </row>
     <row r="3">
@@ -393,7 +393,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43612</v>
+        <v>43600</v>
       </c>
     </row>
     <row r="4">
@@ -403,7 +403,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43613</v>
+        <v>43601</v>
       </c>
     </row>
     <row r="5">
@@ -413,7 +413,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43614</v>
+        <v>43602</v>
       </c>
     </row>
     <row r="6">
@@ -423,7 +423,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>43615</v>
+        <v>43603</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43616</v>
+        <v>43604</v>
       </c>
     </row>
     <row r="8">
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43617</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="9">

--- a/init.xlsx
+++ b/init.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -52,10 +52,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -331,7 +332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,7 +384,7 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>43599</v>
+        <v>43597</v>
       </c>
     </row>
     <row r="3">
@@ -393,7 +394,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43600</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="4">
@@ -403,7 +404,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43601</v>
+        <v>43599</v>
       </c>
     </row>
     <row r="5">
@@ -413,7 +414,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43602</v>
+        <v>43600</v>
       </c>
     </row>
     <row r="6">
@@ -423,7 +424,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>43603</v>
+        <v>43601</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +434,7 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43604</v>
+        <v>43602</v>
       </c>
     </row>
     <row r="8">
@@ -443,7 +444,7 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43605</v>
+        <v>43603</v>
       </c>
     </row>
     <row r="9">
@@ -455,6 +456,2216 @@
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>43604</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>43611</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>43616</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>43624</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>43636</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>43637</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>43638</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n"/>
+      <c r="B54" s="2" t="n"/>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>43639</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>43643</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>43645</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
+      <c r="C63" s="2" t="n"/>
+      <c r="D63" s="2" t="n"/>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
+      <c r="G63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>43648</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>43651</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>43652</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
+      <c r="C72" s="2" t="n"/>
+      <c r="D72" s="2" t="n"/>
+      <c r="E72" s="2" t="n"/>
+      <c r="F72" s="2" t="n"/>
+      <c r="G72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>43654</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>43656</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>43658</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="2" t="n"/>
+      <c r="C81" s="2" t="n"/>
+      <c r="D81" s="2" t="n"/>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>43662</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>43664</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>43666</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
+      <c r="C90" s="2" t="n"/>
+      <c r="D90" s="2" t="n"/>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+      <c r="G90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>43669</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n"/>
+      <c r="B99" s="2" t="n"/>
+      <c r="C99" s="2" t="n"/>
+      <c r="D99" s="2" t="n"/>
+      <c r="E99" s="2" t="n"/>
+      <c r="F99" s="2" t="n"/>
+      <c r="G99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>43675</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n"/>
+      <c r="B108" s="2" t="n"/>
+      <c r="C108" s="2" t="n"/>
+      <c r="D108" s="2" t="n"/>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>43681</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>43683</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>43687</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n"/>
+      <c r="B117" s="2" t="n"/>
+      <c r="C117" s="2" t="n"/>
+      <c r="D117" s="2" t="n"/>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>43688</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>43689</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>43692</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>43693</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>43694</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n"/>
+      <c r="B126" s="2" t="n"/>
+      <c r="C126" s="2" t="n"/>
+      <c r="D126" s="2" t="n"/>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>43695</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>43696</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>43699</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>43700</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n"/>
+      <c r="B135" s="2" t="n"/>
+      <c r="C135" s="2" t="n"/>
+      <c r="D135" s="2" t="n"/>
+      <c r="E135" s="2" t="n"/>
+      <c r="F135" s="2" t="n"/>
+      <c r="G135" s="2" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>43703</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n"/>
+      <c r="B144" s="2" t="n"/>
+      <c r="C144" s="2" t="n"/>
+      <c r="D144" s="2" t="n"/>
+      <c r="E144" s="2" t="n"/>
+      <c r="F144" s="2" t="n"/>
+      <c r="G144" s="2" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>43710</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>43711</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>43713</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>43714</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>43715</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n"/>
+      <c r="B153" s="2" t="n"/>
+      <c r="C153" s="2" t="n"/>
+      <c r="D153" s="2" t="n"/>
+      <c r="E153" s="2" t="n"/>
+      <c r="F153" s="2" t="n"/>
+      <c r="G153" s="2" t="n"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>43716</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>43722</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n"/>
+      <c r="B162" s="2" t="n"/>
+      <c r="C162" s="2" t="n"/>
+      <c r="D162" s="2" t="n"/>
+      <c r="E162" s="2" t="n"/>
+      <c r="F162" s="2" t="n"/>
+      <c r="G162" s="2" t="n"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>43723</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>43724</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>43729</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n"/>
+      <c r="B171" s="2" t="n"/>
+      <c r="C171" s="2" t="n"/>
+      <c r="D171" s="2" t="n"/>
+      <c r="E171" s="2" t="n"/>
+      <c r="F171" s="2" t="n"/>
+      <c r="G171" s="2" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>43730</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>43731</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>43736</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n"/>
+      <c r="B180" s="2" t="n"/>
+      <c r="C180" s="2" t="n"/>
+      <c r="D180" s="2" t="n"/>
+      <c r="E180" s="2" t="n"/>
+      <c r="F180" s="2" t="n"/>
+      <c r="G180" s="2" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/init.xlsx
+++ b/init.xlsx
@@ -52,11 +52,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -668,12 +667,6 @@
       <c r="B25" s="1" t="n">
         <v>43616</v>
       </c>
-      <c r="C25" s="3" t="n">
-        <v>0.2291666666666667</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>0.40625</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
